--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.120419.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.120419.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5449,12 +5449,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5905,12 +5905,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6209,12 +6209,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6855,12 +6855,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7235,12 +7235,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9479,12 +9479,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10163,12 +10163,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10429,12 +10429,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10883,12 +10883,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11035,12 +11035,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11149,12 +11149,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11415,12 +11415,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12137,12 +12137,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
